--- a/Stitching_Mineral_Data/MedicineLake.xlsx
+++ b/Stitching_Mineral_Data/MedicineLake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Mineral_Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Stitching_Mineral_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F505C4E9-6EDD-46BB-B7AE-331749178A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D65C79-39C0-4104-8C7B-4E4C011972AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{048AC486-DEDE-44A7-98CD-FC2E6DB5D52D}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{048AC486-DEDE-44A7-98CD-FC2E6DB5D52D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cpx_All" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="69">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -200,6 +200,51 @@
   </si>
   <si>
     <t>Short Name</t>
+  </si>
+  <si>
+    <t>Kinzler et al. (1985)</t>
+  </si>
+  <si>
+    <t>83-15</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>rim</t>
+  </si>
+  <si>
+    <t>83-31</t>
+  </si>
+  <si>
+    <t>79-38k</t>
+  </si>
+  <si>
+    <t>groundmass</t>
+  </si>
+  <si>
+    <t>83-23b</t>
+  </si>
+  <si>
+    <t>Grove et al. (1998)</t>
+  </si>
+  <si>
+    <t>Burnt Lava</t>
+  </si>
+  <si>
+    <t>Burnt Lava Andesite</t>
+  </si>
+  <si>
+    <t>Burnt Lava Mafic inclusion</t>
+  </si>
+  <si>
+    <t>OPOA</t>
+  </si>
+  <si>
+    <t>LPOA</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
 </sst>
 </file>
@@ -612,10 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB09A10-6188-4D5D-AC86-B049C0BEED96}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1070,6 +1116,9 @@
       <c r="B11" t="s">
         <v>33</v>
       </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
       <c r="G11">
         <v>52.3</v>
       </c>
@@ -1108,6 +1157,9 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
       <c r="G12">
         <v>52.9</v>
       </c>
@@ -1149,6 +1201,9 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
       <c r="G13">
         <v>51.4</v>
       </c>
@@ -1266,6 +1321,416 @@
       </c>
       <c r="Q15" s="6">
         <v>99.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>50.1</v>
+      </c>
+      <c r="H16">
+        <v>0.47</v>
+      </c>
+      <c r="I16">
+        <v>1.71</v>
+      </c>
+      <c r="J16">
+        <v>11.99</v>
+      </c>
+      <c r="K16">
+        <v>0.47</v>
+      </c>
+      <c r="L16">
+        <v>13.86</v>
+      </c>
+      <c r="M16">
+        <v>20.13</v>
+      </c>
+      <c r="N16">
+        <v>0.37</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(G16:P16)</f>
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>50.76</v>
+      </c>
+      <c r="H17">
+        <v>0.51</v>
+      </c>
+      <c r="I17">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J17">
+        <v>10.58</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
+      <c r="L17">
+        <v>15.81</v>
+      </c>
+      <c r="M17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.06</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>SUM(G17:P17)</f>
+        <v>98.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>50.16</v>
+      </c>
+      <c r="H18">
+        <v>0.87</v>
+      </c>
+      <c r="I18">
+        <v>3.13</v>
+      </c>
+      <c r="J18">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="K18">
+        <v>0.23</v>
+      </c>
+      <c r="L18">
+        <v>15.03</v>
+      </c>
+      <c r="M18">
+        <v>20.56</v>
+      </c>
+      <c r="N18">
+        <v>0.34</v>
+      </c>
+      <c r="O18">
+        <v>0.17</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(G18:P18)</f>
+        <v>99.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>51.9</v>
+      </c>
+      <c r="H19">
+        <v>0.64</v>
+      </c>
+      <c r="I19">
+        <v>2.58</v>
+      </c>
+      <c r="J19">
+        <v>10.5</v>
+      </c>
+      <c r="K19">
+        <v>0.31</v>
+      </c>
+      <c r="L19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M19">
+        <v>15.5</v>
+      </c>
+      <c r="N19">
+        <v>0.36</v>
+      </c>
+      <c r="O19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(G19:P19)</f>
+        <v>99.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="6">
+        <v>50.43</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="J20" s="6">
+        <v>7.31</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L20" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="M20" s="6">
+        <v>19.96</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>SUM(G20:P20)</f>
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>50.1</v>
+      </c>
+      <c r="H21">
+        <v>0.84</v>
+      </c>
+      <c r="I21">
+        <v>3.99</v>
+      </c>
+      <c r="J21">
+        <v>9.98</v>
+      </c>
+      <c r="K21">
+        <v>0.21</v>
+      </c>
+      <c r="L21">
+        <v>14.3</v>
+      </c>
+      <c r="M21">
+        <v>19.3</v>
+      </c>
+      <c r="N21">
+        <v>0.4</v>
+      </c>
+      <c r="O21">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22">
+        <v>53</v>
+      </c>
+      <c r="H22">
+        <v>0.41</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>6.09</v>
+      </c>
+      <c r="K22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L22">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.22</v>
+      </c>
+      <c r="O22">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>52.2</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>2.27</v>
+      </c>
+      <c r="J23">
+        <v>7.81</v>
+      </c>
+      <c r="K23">
+        <v>0.21</v>
+      </c>
+      <c r="L23">
+        <v>17.3</v>
+      </c>
+      <c r="M23">
+        <v>18.8</v>
+      </c>
+      <c r="N23">
+        <v>0.2</v>
+      </c>
+      <c r="O23">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>50</v>
+      </c>
+      <c r="H24">
+        <v>1.04</v>
+      </c>
+      <c r="I24">
+        <v>4.57</v>
+      </c>
+      <c r="J24">
+        <v>7.3</v>
+      </c>
+      <c r="K24">
+        <v>0.22</v>
+      </c>
+      <c r="L24">
+        <v>15.2</v>
+      </c>
+      <c r="M24">
+        <v>20.5</v>
+      </c>
+      <c r="N24">
+        <v>0.18</v>
+      </c>
+      <c r="O24">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -1662,9 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F643A9A0-52A8-438F-93DE-65F9CC7ECAFB}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
@@ -2387,11 +2850,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F8EF65-5434-4D6C-8B88-E597354220B9}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="38.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" t="s">
